--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1849.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1849.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5320821407291347</v>
+        <v>1.364128232002258</v>
       </c>
       <c r="B1">
-        <v>0.5793499541694591</v>
+        <v>2.849937677383423</v>
       </c>
       <c r="C1">
-        <v>0.6784010308138094</v>
+        <v>3.85257887840271</v>
       </c>
       <c r="D1">
-        <v>1.149285952814487</v>
+        <v>3.518016815185547</v>
       </c>
       <c r="E1">
-        <v>2.532690682536058</v>
+        <v>0.8124356865882874</v>
       </c>
     </row>
   </sheetData>
